--- a/similarities/split_global/harmonic_similarity_timestamps_216.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_216.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,199 +484,225 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>schubert-winterreise_175</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_294</t>
+          <t>schubert-winterreise_109</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['E:maj/B', 'E:min/B', 'B:maj']]</t>
+          <t>['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['C', 'C:min', 'G/3']]</t>
+          <t>['D:min', 'A:7', 'D:min', 'D:min/A', 'A:7']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:05.520000', '0:00:13.120000')]</t>
+          <t>('0:00:38.120000', '0:00:47.080000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:15.565442', '0:00:19.466394')]</t>
+          <t>('0:00:14.220000', '0:00:46.760000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=5.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-175#t=38.12</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-294#t=15.565442']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-109#t=14.22</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr"/>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_180</t>
+          <t>schubert-winterreise_85</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>schubert-winterreise_20</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min']]</t>
+          <t>['D#:maj/A#', 'A#:7', 'D#:maj/A#']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['C:maj/G', 'G:7', 'C:maj/G']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:04.840000', '0:00:10.640000')]</t>
+          <t>('0:01:20.160000', '0:01:26.120000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:01:25.580000', '0:01:34.240000')]</t>
+          <t>('0:01:29.740000', '0:01:36.120000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-180#t=4.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=80.16</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=85.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-20#t=89.74</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
+          <t>schubert-winterreise_188</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_95</t>
+          <t>schubert-winterreise_179</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['A:min', 'G#:dim7', 'A:min', 'G#:dim7'], ['E:7', 'A:min', 'G#:dim7', 'A:min']]</t>
+          <t>['F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['C:min', 'B:dim7/C', 'C:min', 'B:dim7/C'], ['G:7', 'C:min', 'B:dim7/C', 'C:min']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:20.900000', '0:00:26.900000'), ('0:00:19.380000', '0:00:25.360000')]</t>
+          <t>('0:00:09.260000', '0:00:13.900000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:01.260000', '0:00:07.300000'), ('0:01:06.920000', '0:01:15.860000')]</t>
+          <t>('0:02:11.200000', '0:02:16.340000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-149#t=20.9', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-149#t=19.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=9.26</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=1.26', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=66.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-179#t=131.2</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_180</t>
+          <t>schubert-winterreise_74</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>schubert-winterreise_66</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C:7', 'F:min']]</t>
+          <t>['C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:12.060000', '0:00:17.060000')]</t>
+          <t>('0:00:09.780000', '0:00:14.360000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:43.680000', '0:00:45.800000')]</t>
+          <t>('0:00:23.300000', '0:00:29.360000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-180#t=12.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=9.78</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=43.68']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=23.3</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_61</t>
+          <t>isophonics_174</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -686,32 +712,32 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['B:min/5', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>['D', 'A', 'D']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>['F#:maj', 'C#:maj', 'F#:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:23.632675', '0:00:27.452358')]</t>
+          <t>('0:00:06.536000', '0:00:11.853000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:01.980000', '0:00:08.680000')]</t>
+          <t>('0:00:50.160000', '0:00:52.820000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-61#t=23.632675']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=6.536</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=1.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=50.16</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -720,98 +746,108 @@
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>schubert-winterreise_84</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_123</t>
+          <t>schubert-winterreise_202</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>['G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7/F', 'F:min']]</t>
+          <t>['A#:maj', 'F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:43.180000', '0:00:45.100000')]</t>
+          <t>('0:01:03.100000', '0:01:13.880000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:14.920000', '0:00:20.760000')]</t>
+          <t>('0:01:02.280000', '0:01:04.320000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=43.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=63.1</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-123#t=14.92']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=62.28</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_167</t>
+          <t>schubert-winterreise_47</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_183</t>
+          <t>schubert-winterreise_170</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['G/5', 'C/9', 'G', 'C/5']]</t>
+          <t>['D:min', 'A:7/E', 'D:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:00.727609', '0:00:10.723990')]</t>
+          <t>('0:00:00.360000', '0:00:05.600000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:02:08.540000', '0:02:13.900000')]</t>
+          <t>('0:00:40.820000', '0:00:43.620000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-167#t=0.727609']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-47#t=0.36</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-183#t=128.54']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=40.82</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -821,361 +857,379 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_1</t>
+          <t>isophonics_258</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>['G#/C', 'D#', 'G#']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['C:maj', 'G:maj', 'C:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:04:11.500000', '0:04:17.660000')]</t>
+          <t>('0:00:51.600000', '0:00:55.800000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:00.720000', '0:00:17.050000')]</t>
+          <t>('0:00:31.138000', '0:00:34.424000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=251.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=51.6</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-1#t=0.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-258#t=31.138</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
+          <t>isophonics_274</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
+          <t>isophonics_218</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['C#:hdim7/B', 'B:min', 'C#:hdim7/B', 'B:min']]</t>
+          <t>['Eb:sus4', 'Eb', 'Ab', 'Db']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['C:hdim7/D#', 'A#:min/C#', 'C:hdim7/D#', 'A#:min/C#']]</t>
+          <t>['G:sus4', 'G', 'C', 'F']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:06.180000', '0:00:24.580000')]</t>
+          <t>('0:01:07.170090', '0:01:11.407732')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:59.100000', '0:01:09')]</t>
+          <t>('0:00:04.928000', '0:00:09.009000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-110#t=6.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-274#t=67.17009</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=59.1']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-218#t=4.928</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_15</t>
+          <t>jaah_1</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_45</t>
+          <t>isophonics_183</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'G']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['F/3', 'Bb', 'C:maj']]</t>
+          <t>['D', 'A:7', 'D']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:09.861020', '0:00:33.724965')]</t>
+          <t>('0:00:00.720000', '0:00:17.050000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:01:03.461000', '0:01:06.163000')]</t>
+          <t>('0:01:09.520470', '0:01:14.942329')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-15#t=9.86102']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-1#t=0.72</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-45#t=63.461']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-183#t=69.52047</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
+          <t>jaah_70</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
+          <t>jaah_15</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['D:min', 'G:min/5', 'D:min']]</t>
+          <t>['Gb:maj6', 'Ab:7', 'Db']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['C:min', 'F:min', 'C:min/G']]</t>
+          <t>['D:min7', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:27.789047', '0:00:31.109501')]</t>
+          <t>('0:00:37.750000', '0:00:41.100000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:09.240000', '0:00:12.560000')]</t>
+          <t>('0:00:11.260000', '0:00:14.360000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-255#t=27.789047']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-70#t=37.75</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=9.24']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-15#t=11.26</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_181</t>
+          <t>schubert-winterreise_157</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>isophonics_252</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:maj', 'D#:maj'], ['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>['F:min', 'A#:min/F', 'F:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'G:maj'], ['G:maj/B', 'D:7', 'G:maj']]</t>
+          <t>['C:min', 'F:min/5', 'C:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:02.560000', '0:00:21.440000'), ('0:01:05.280000', '0:01:14.480000')]</t>
+          <t>('0:00:00.300000', '0:00:03.340000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:43.260000', '0:00:45.660000'), ('0:00:17.160000', '0:00:19.520000')]</t>
+          <t>('0:00:17.357000', '0:00:22.981000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=2.56', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=65.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=0.3</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=43.26', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=17.16']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-252#t=17.357</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_207</t>
+          <t>schubert-winterreise_168</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_29</t>
+          <t>isophonics_223</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['A#:7', 'D#:maj/A#', 'D#:min/A#', 'A#:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>['A:7', 'D', 'D:min', 'A']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:31.260000', '0:00:45.880000')]</t>
+          <t>('0:00:03.080000', '0:00:11.700000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:32.400000', '0:00:44.110000')]</t>
+          <t>('0:00:12.823786', '0:00:20.068412')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-207#t=31.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=3.08</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=32.4']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-223#t=12.823786</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>schubert-winterreise_58</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_69</t>
+          <t>schubert-winterreise_109</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj']]</t>
+          <t>['A:min', 'E:7/G#', 'A:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['D:min', 'A:7/E', 'D:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:43.340000', '0:00:59.340000')]</t>
+          <t>('0:00:37.960000', '0:00:44.800000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:33.480000', '0:00:45.590000')]</t>
+          <t>('0:00:01.540000', '0:00:06.880000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=43.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-58#t=37.96</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-69#t=33.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-109#t=1.54</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr"/>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>schubert-winterreise_143</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_158</t>
+          <t>schubert-winterreise_46</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min']]</t>
+          <t>['B:min', 'F#:maj', 'B:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:13.480000', '0:00:20.960000')]</t>
+          <t>('0:00:13.420000', '0:00:19.500000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:10.260000', '0:00:15.940000')]</t>
+          <t>('0:00:10.360000', '0:00:18.440000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=13.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=13.42</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=10.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-46#t=10.36</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1184,6 +1238,8 @@
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
